--- a/Sara Rezaeimanesh/SaraRezaeimanes-WeekSeven.xlsx
+++ b/Sara Rezaeimanesh/SaraRezaeimanes-WeekSeven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98902\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05A341A-F6DD-4D77-BA07-18069A3007A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1614774-6BE2-499D-AB7E-7BB1FEDF3694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B132E77F-25F4-4952-A9D3-0AE13FE37FD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>تاریخ</t>
   </si>
@@ -66,52 +66,43 @@
     <t>جمعه</t>
   </si>
   <si>
-    <t>شروع پروژه خیرین-بخش اخبار</t>
-  </si>
-  <si>
-    <t>خیرین بخش اخبار و بخش خیرین</t>
-  </si>
-  <si>
-    <t>خیرین بخش خیرین</t>
-  </si>
-  <si>
-    <t>خیرین بخش خیرین و اخبار تکمیل-شروع بخش پروژه ها</t>
-  </si>
-  <si>
-    <t>تکمیل بخش پروژه ها، ساختن و استفاده از تم ها</t>
-  </si>
-  <si>
-    <t>تکمیل هدر سایت و مطالعه بیشتر در زمینه ری اکت</t>
-  </si>
-  <si>
-    <t>تکمیل فوتر، شروع وصل کردن api</t>
-  </si>
-  <si>
-    <t>6 شهریور</t>
-  </si>
-  <si>
-    <t>شهریور 7</t>
-  </si>
-  <si>
-    <t>شهریور 8</t>
-  </si>
-  <si>
-    <t>شهریور 9</t>
-  </si>
-  <si>
-    <t>شهریور 10</t>
-  </si>
-  <si>
-    <t>شهریور 11</t>
-  </si>
-  <si>
-    <t>شهریور 12</t>
-  </si>
-  <si>
-    <t>گزارش کار از تاریخ 6 شهریور تا تاریخ 12 شهریور</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33:30:00</t>
+    <t>گزارش کار از تاریخ 13 شهریور تا تاریخ 19 شهریور</t>
+  </si>
+  <si>
+    <t>درست کردن استایل سایت، تلاش برای وصل کردن API، دیدن ویدیو آموزشی</t>
+  </si>
+  <si>
+    <t>جلسه کارآموزی، وصل کردن API، برطرف کردن باگ های دیزاین</t>
+  </si>
+  <si>
+    <t>کار کردن روی وبسایت خیرین و تصحیح فولدر بندی ها</t>
+  </si>
+  <si>
+    <t>نهایی کردن استایل وبسایت</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:00:00</t>
+  </si>
+  <si>
+    <t>13 شهریور</t>
+  </si>
+  <si>
+    <t>شهریور 14</t>
+  </si>
+  <si>
+    <t>شهریور 15</t>
+  </si>
+  <si>
+    <t>شهریور 16</t>
+  </si>
+  <si>
+    <t>شهریور 17</t>
+  </si>
+  <si>
+    <t>شهریور 18</t>
+  </si>
+  <si>
+    <t>شهریور 19</t>
   </si>
 </sst>
 </file>
@@ -528,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87DA073-7857-452C-801F-7CF0FE78C183}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +541,7 @@
     </row>
     <row r="2" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -572,35 +563,33 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="2">
-        <v>0.11458333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -609,12 +598,12 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -623,12 +612,12 @@
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>0.25</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -637,35 +626,31 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="2">
-        <v>0.20833333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="2">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -865,7 +850,7 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
